--- a/test-service/src/main/resources/rule4/rule4.xlsx
+++ b/test-service/src/main/resources/rule4/rule4.xlsx
@@ -46,6 +46,15 @@
     <t>bizCode</t>
   </si>
   <si>
+    <t>SUCCESSED</t>
+  </si>
+  <si>
+    <t>PAY.CZ</t>
+  </si>
+  <si>
+    <t>PAY.TX</t>
+  </si>
+  <si>
     <t>M44444444</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -66,12 +75,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SUCCESSED</t>
-  </si>
-  <si>
-    <t>PAY.CZ</t>
-  </si>
-  <si>
     <t>488888888888B</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -132,22 +135,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>388888888888G</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-06-16 09:16:06</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>notTriggered</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAY.TX</t>
-  </si>
-  <si>
-    <t>388888888888C</t>
+    <t>488888888888H</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -157,6 +145,18 @@
   <si>
     <t>POC0004</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>488888888888C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-06-16 09:16:06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notTriggered</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -586,224 +586,224 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3">
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3">
         <v>98</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3">
         <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3">
         <v>58</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3">
         <v>98</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3">
         <v>185</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3">
         <v>85</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="3">
         <v>185</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
+        <v>9</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>35</v>
@@ -815,13 +815,13 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
         <v>37</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
